--- a/filters-testing.xlsx
+++ b/filters-testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{E9FD23FB-91CC-456A-8FC2-31D5DC47E870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E2F66FBC-DF97-4886-AD3E-1B0C52997633}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="114_{E9FD23FB-91CC-456A-8FC2-31D5DC47E870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0FA3D14-E262-4BD8-BF0E-416A2C6776EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4261" uniqueCount="1227">
   <si>
     <t>No</t>
   </si>
@@ -1337,9 +1337,6 @@
     <t>https://www.mecze.com/gdzie-na-zywo-w-internecie-ogladac-hit-ekstraklasy-jagiellonia-legia</t>
   </si>
   <si>
-    <t>block banner</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
@@ -3716,10 +3713,7 @@
     <t>^468^$domain=betgol.pl|betglob.pl|worldofbookmakers.com|extragoals.com</t>
   </si>
   <si>
-    <t>/new/300 or /imghttps/300</t>
-  </si>
-  <si>
-    <t>/new/728 or /imghttps/728</t>
+    <t>block-banner</t>
   </si>
 </sst>
 </file>
@@ -5110,9 +5104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F213" sqref="F213"/>
+      <selection pane="topRight" activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44220,7 +44214,7 @@
         <v>395</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>21</v>
@@ -44282,7 +44276,7 @@
         <v>400</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>21</v>
@@ -44400,7 +44394,7 @@
         <v>408</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>21</v>
@@ -44429,7 +44423,7 @@
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>21</v>
@@ -44483,7 +44477,7 @@
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>14</v>
@@ -44601,7 +44595,7 @@
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>21</v>
@@ -44628,7 +44622,7 @@
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>21</v>
@@ -44688,7 +44682,7 @@
         <v>420</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>21</v>
@@ -44699,9 +44693,7 @@
       <c r="E227" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>1227</v>
-      </c>
+      <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
         <v>17</v>
       </c>
@@ -44796,7 +44788,7 @@
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>17</v>
@@ -44846,7 +44838,7 @@
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>17</v>
@@ -44921,7 +44913,7 @@
         <v>429</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>21</v>
@@ -44932,9 +44924,7 @@
       <c r="E236" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F236" s="3" t="s">
-        <v>1228</v>
-      </c>
+      <c r="F236" s="3"/>
       <c r="G236" s="3" t="s">
         <v>17</v>
       </c>
@@ -45079,7 +45069,7 @@
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>17</v>
@@ -45129,19 +45119,19 @@
         <v>431</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>434</v>
+        <v>1226</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>17</v>
@@ -45162,7 +45152,7 @@
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>17</v>
@@ -45184,16 +45174,16 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>17</v>
@@ -45215,7 +45205,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>432</v>
@@ -45246,16 +45236,16 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>17</v>
@@ -45279,22 +45269,22 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>17</v>
@@ -45312,22 +45302,22 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>17</v>
@@ -45345,22 +45335,22 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>17</v>
@@ -45378,22 +45368,22 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>17</v>
@@ -45411,22 +45401,22 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>17</v>
@@ -45444,16 +45434,16 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>17</v>
@@ -45475,16 +45465,16 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>17</v>
@@ -45506,22 +45496,22 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>17</v>
@@ -45540,7 +45530,7 @@
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
       <c r="B257" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>21</v>
@@ -45566,16 +45556,16 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>17</v>
@@ -45600,7 +45590,7 @@
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>21</v>
@@ -45628,16 +45618,16 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>17</v>
@@ -45660,7 +45650,7 @@
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>21</v>
@@ -45687,7 +45677,7 @@
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>21</v>
@@ -45714,7 +45704,7 @@
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
       <c r="B263" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>21</v>
@@ -45740,16 +45730,16 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>17</v>
@@ -45772,7 +45762,7 @@
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>21</v>
@@ -45799,7 +45789,7 @@
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>21</v>
@@ -45826,7 +45816,7 @@
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>21</v>
@@ -45853,7 +45843,7 @@
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>21</v>
@@ -45880,7 +45870,7 @@
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>21</v>
@@ -45907,7 +45897,7 @@
     <row r="270" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="27"/>
       <c r="B270" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C270" s="28" t="s">
         <v>21</v>
@@ -45933,16 +45923,16 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>17</v>
@@ -45965,7 +45955,7 @@
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
       <c r="B272" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>14</v>
@@ -45991,14 +45981,14 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B273" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="B273" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>17</v>
@@ -46022,16 +46012,16 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>17</v>
@@ -46054,7 +46044,7 @@
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>21</v>
@@ -46080,7 +46070,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -46105,16 +46095,16 @@
     </row>
     <row r="277" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="B277" s="28" t="s">
         <v>495</v>
-      </c>
-      <c r="B277" s="28" t="s">
-        <v>496</v>
       </c>
       <c r="C277" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D277" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>17</v>
@@ -46136,16 +46126,16 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>17</v>
@@ -46168,7 +46158,7 @@
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>14</v>
@@ -46193,16 +46183,16 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B280" s="31" t="s">
         <v>502</v>
-      </c>
-      <c r="B280" s="31" t="s">
-        <v>503</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>17</v>
@@ -46225,13 +46215,13 @@
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D281" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>17</v>
@@ -46254,7 +46244,7 @@
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>21</v>
@@ -46279,7 +46269,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -46303,14 +46293,14 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>17</v>
@@ -46334,16 +46324,16 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D285" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>17</v>
@@ -46366,7 +46356,7 @@
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
       <c r="B286" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>21</v>
@@ -46391,14 +46381,14 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B287" s="31" t="s">
         <v>513</v>
-      </c>
-      <c r="B287" s="31" t="s">
-        <v>514</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>17</v>
@@ -46422,16 +46412,16 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B288" s="51" t="s">
         <v>516</v>
-      </c>
-      <c r="B288" s="51" t="s">
-        <v>517</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>17</v>
@@ -46453,16 +46443,16 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B289" s="31" t="s">
         <v>519</v>
-      </c>
-      <c r="B289" s="31" t="s">
-        <v>520</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D289" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>17</v>
@@ -46484,14 +46474,14 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B290" s="51" t="s">
         <v>522</v>
-      </c>
-      <c r="B290" s="51" t="s">
-        <v>523</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>17</v>
@@ -46515,16 +46505,16 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B291" s="51" t="s">
         <v>525</v>
-      </c>
-      <c r="B291" s="51" t="s">
-        <v>526</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>17</v>
@@ -46546,14 +46536,14 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>17</v>
@@ -46577,16 +46567,16 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B293" s="51" t="s">
         <v>529</v>
-      </c>
-      <c r="B293" s="51" t="s">
-        <v>530</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>17</v>
@@ -46608,16 +46598,16 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B294" s="51" t="s">
         <v>532</v>
-      </c>
-      <c r="B294" s="51" t="s">
-        <v>533</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>17</v>
@@ -46639,16 +46629,16 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B295" s="51" t="s">
         <v>537</v>
-      </c>
-      <c r="B295" s="51" t="s">
-        <v>538</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>17</v>
@@ -46670,14 +46660,14 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B296" s="51" t="s">
         <v>540</v>
-      </c>
-      <c r="B296" s="51" t="s">
-        <v>541</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>17</v>
@@ -46701,14 +46691,14 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B297" s="31" t="s">
         <v>543</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>544</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>17</v>
@@ -46732,16 +46722,16 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B298" s="51" t="s">
         <v>546</v>
-      </c>
-      <c r="B298" s="51" t="s">
-        <v>547</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>17</v>
@@ -46763,16 +46753,16 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B299" s="51" t="s">
         <v>549</v>
-      </c>
-      <c r="B299" s="51" t="s">
-        <v>550</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>17</v>
@@ -46794,22 +46784,22 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B300" s="51" t="s">
         <v>552</v>
-      </c>
-      <c r="B300" s="51" t="s">
-        <v>553</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D300" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>17</v>
@@ -46828,19 +46818,19 @@
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
       <c r="B301" s="51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>17</v>
@@ -46859,19 +46849,19 @@
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
       <c r="B302" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D302" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>17</v>
@@ -46890,7 +46880,7 @@
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
       <c r="B303" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>21</v>
@@ -46899,7 +46889,7 @@
         <v>17</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>17</v>
@@ -46918,7 +46908,7 @@
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
       <c r="B304" s="51" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>14</v>
@@ -46927,7 +46917,7 @@
         <v>17</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>17</v>
@@ -46945,16 +46935,16 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D305" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>17</v>
@@ -46977,7 +46967,7 @@
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
       <c r="B306" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>21</v>
@@ -47003,7 +46993,7 @@
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
       <c r="B307" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>21</v>
@@ -47029,7 +47019,7 @@
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
       <c r="B308" s="51" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>21</v>
@@ -47055,7 +47045,7 @@
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
       <c r="B309" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>21</v>
@@ -47081,7 +47071,7 @@
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
       <c r="B310" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>21</v>
@@ -47107,7 +47097,7 @@
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
       <c r="B311" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>21</v>
@@ -47132,16 +47122,16 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D312" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>17</v>
@@ -47164,7 +47154,7 @@
     <row r="313" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="27"/>
       <c r="B313" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C313" s="28" t="s">
         <v>14</v>
@@ -47189,16 +47179,16 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B314" s="22" t="s">
         <v>574</v>
-      </c>
-      <c r="B314" s="22" t="s">
-        <v>575</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D314" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>17</v>
@@ -47223,7 +47213,7 @@
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>17</v>
@@ -47248,7 +47238,7 @@
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>17</v>
@@ -47273,7 +47263,7 @@
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>17</v>
@@ -47298,7 +47288,7 @@
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>17</v>
@@ -47323,7 +47313,7 @@
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>17</v>
@@ -47345,14 +47335,14 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B320" s="22" t="s">
         <v>582</v>
-      </c>
-      <c r="B320" s="22" t="s">
-        <v>583</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>17</v>
@@ -47377,7 +47367,7 @@
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
       <c r="B321" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C321" s="3"/>
       <c r="E321" s="3" t="s">
@@ -47402,16 +47392,16 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D322" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>17</v>
@@ -47434,7 +47424,7 @@
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
       <c r="B323" s="22" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>21</v>
@@ -47459,7 +47449,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -47483,16 +47473,16 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>17</v>
@@ -47515,7 +47505,7 @@
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
       <c r="B326" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>14</v>
@@ -47541,7 +47531,7 @@
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
       <c r="B327" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>14</v>
@@ -47567,7 +47557,7 @@
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="8"/>
       <c r="B328" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>21</v>
@@ -47594,7 +47584,7 @@
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
       <c r="B329" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>21</v>
@@ -47619,16 +47609,16 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D330" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>17</v>
@@ -47651,7 +47641,7 @@
     <row r="331" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="27"/>
       <c r="B331" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C331" s="28" t="s">
         <v>21</v>
@@ -47676,16 +47666,16 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B332" s="22" t="s">
         <v>600</v>
-      </c>
-      <c r="B332" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D332" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>17</v>
@@ -47707,16 +47697,16 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B333" s="22" t="s">
         <v>603</v>
-      </c>
-      <c r="B333" s="22" t="s">
-        <v>604</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D333" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>17</v>
@@ -47738,16 +47728,16 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B334" s="22" t="s">
         <v>606</v>
-      </c>
-      <c r="B334" s="22" t="s">
-        <v>607</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D334" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>17</v>
@@ -47769,16 +47759,16 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>17</v>
@@ -47800,16 +47790,16 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D336" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>17</v>
@@ -47832,7 +47822,7 @@
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="8"/>
       <c r="B337" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>14</v>
@@ -47858,7 +47848,7 @@
     <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="14"/>
       <c r="B338" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C338" s="12" t="s">
         <v>14</v>
@@ -47883,20 +47873,20 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B339" s="22" t="s">
         <v>617</v>
-      </c>
-      <c r="B339" s="22" t="s">
-        <v>618</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" t="s">
+        <v>618</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F339" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>17</v>
@@ -47914,20 +47904,20 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>17</v>
@@ -47946,7 +47936,7 @@
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
       <c r="B341" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C341" s="3"/>
       <c r="E341" s="3" t="s">
@@ -47970,7 +47960,7 @@
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
       <c r="B342" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C342" s="3"/>
       <c r="E342" s="3" t="s">
@@ -47993,20 +47983,20 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B343" s="22" t="s">
         <v>626</v>
-      </c>
-      <c r="B343" s="22" t="s">
-        <v>627</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>17</v>
@@ -48024,20 +48014,20 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B344" s="22" t="s">
         <v>629</v>
-      </c>
-      <c r="B344" s="22" t="s">
-        <v>630</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>17</v>
@@ -48055,20 +48045,20 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B345" s="22" t="s">
         <v>632</v>
-      </c>
-      <c r="B345" s="22" t="s">
-        <v>633</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>17</v>
@@ -48086,20 +48076,20 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E346" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>17</v>
@@ -48117,20 +48107,20 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>17</v>
@@ -48148,20 +48138,20 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>17</v>
@@ -48179,20 +48169,20 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>17</v>
@@ -48211,7 +48201,7 @@
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
       <c r="B350" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C350" s="3"/>
       <c r="E350" s="3" t="s">
@@ -48235,7 +48225,7 @@
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
       <c r="B351" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C351" s="3"/>
       <c r="E351" s="3" t="s">
@@ -48259,7 +48249,7 @@
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="8"/>
       <c r="B352" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C352" s="3"/>
       <c r="E352" s="3" t="s">
@@ -48282,20 +48272,20 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>17</v>
@@ -48314,7 +48304,7 @@
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
       <c r="B354" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C354" s="3"/>
       <c r="E354" s="3" t="s">
@@ -48337,20 +48327,20 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B355" s="22" t="s">
         <v>653</v>
-      </c>
-      <c r="B355" s="22" t="s">
-        <v>654</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>17</v>
@@ -48368,20 +48358,20 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B356" s="22" t="s">
         <v>656</v>
-      </c>
-      <c r="B356" s="22" t="s">
-        <v>657</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>17</v>
@@ -48399,14 +48389,14 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B357" s="22" t="s">
         <v>659</v>
-      </c>
-      <c r="B357" s="22" t="s">
-        <v>660</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>17</v>
@@ -48428,20 +48418,20 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>663</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>17</v>
@@ -48460,7 +48450,7 @@
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -48485,7 +48475,7 @@
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
       <c r="B360" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -48510,7 +48500,7 @@
     <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
       <c r="B361" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -48535,7 +48525,7 @@
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
       <c r="B362" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -48560,7 +48550,7 @@
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -48585,7 +48575,7 @@
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
       <c r="B364" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -48610,7 +48600,7 @@
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
       <c r="B365" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -48634,20 +48624,20 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B366" s="22" t="s">
         <v>672</v>
-      </c>
-      <c r="B366" s="22" t="s">
-        <v>673</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>17</v>
@@ -48665,20 +48655,20 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>676</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>17</v>
@@ -48697,7 +48687,7 @@
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
       <c r="B368" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -48721,20 +48711,20 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B369" s="22" t="s">
         <v>679</v>
-      </c>
-      <c r="B369" s="22" t="s">
-        <v>680</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>17</v>
@@ -48752,20 +48742,20 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B370" s="22" t="s">
         <v>682</v>
-      </c>
-      <c r="B370" s="22" t="s">
-        <v>683</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>17</v>
@@ -48783,20 +48773,20 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B371" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="B371" s="22" t="s">
-        <v>686</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>17</v>
@@ -48814,20 +48804,20 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>17</v>
@@ -48846,7 +48836,7 @@
     <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
       <c r="B373" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -48870,20 +48860,20 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>693</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>17</v>
@@ -48902,7 +48892,7 @@
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
       <c r="B375" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -48926,20 +48916,20 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>17</v>
@@ -48958,7 +48948,7 @@
     <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
       <c r="B377" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -48982,20 +48972,20 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B378" s="22" t="s">
         <v>700</v>
-      </c>
-      <c r="B378" s="22" t="s">
-        <v>701</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>17</v>
@@ -49013,20 +49003,20 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>17</v>
@@ -49044,10 +49034,10 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -49071,10 +49061,10 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -49098,20 +49088,20 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B382" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>17</v>
@@ -49129,20 +49119,20 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B383" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>17</v>
@@ -49160,10 +49150,10 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -49187,10 +49177,10 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B385" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -49214,20 +49204,20 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>720</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>17</v>
@@ -49245,20 +49235,20 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B387" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="B387" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>17</v>
@@ -49276,20 +49266,20 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B388" s="22" t="s">
         <v>724</v>
-      </c>
-      <c r="B388" s="22" t="s">
-        <v>725</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>17</v>
@@ -49307,20 +49297,20 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B389" s="22" t="s">
         <v>727</v>
-      </c>
-      <c r="B389" s="22" t="s">
-        <v>728</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>17</v>
@@ -49338,20 +49328,20 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B390" s="22" t="s">
         <v>730</v>
-      </c>
-      <c r="B390" s="22" t="s">
-        <v>731</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F390" s="22" t="s">
         <v>732</v>
-      </c>
-      <c r="E390" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F390" s="22" t="s">
-        <v>733</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>17</v>
@@ -49369,20 +49359,20 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B391" s="22" t="s">
         <v>734</v>
-      </c>
-      <c r="B391" s="22" t="s">
-        <v>735</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F391" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="E391" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F391" s="3" t="s">
-        <v>737</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>17</v>
@@ -49400,10 +49390,10 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B392" s="22" t="s">
         <v>738</v>
-      </c>
-      <c r="B392" s="22" t="s">
-        <v>739</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -49427,20 +49417,20 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B393" s="22" t="s">
         <v>740</v>
-      </c>
-      <c r="B393" s="22" t="s">
-        <v>741</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>17</v>
@@ -49458,20 +49448,20 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B394" s="22" t="s">
         <v>742</v>
-      </c>
-      <c r="B394" s="22" t="s">
-        <v>743</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>17</v>
@@ -49489,20 +49479,20 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B395" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="B395" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>17</v>
@@ -49520,12 +49510,12 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>17</v>
@@ -49547,20 +49537,20 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>17</v>
@@ -49578,14 +49568,14 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>17</v>
@@ -49607,10 +49597,10 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>755</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -49634,10 +49624,10 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B400" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -49661,20 +49651,20 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B401" s="22" t="s">
         <v>758</v>
-      </c>
-      <c r="B401" s="22" t="s">
-        <v>759</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>17</v>
@@ -49692,10 +49682,10 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B402" s="22" t="s">
         <v>760</v>
-      </c>
-      <c r="B402" s="22" t="s">
-        <v>761</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -49719,10 +49709,10 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B403" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -49746,10 +49736,10 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B404" s="22" t="s">
         <v>764</v>
-      </c>
-      <c r="B404" s="22" t="s">
-        <v>765</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -49773,20 +49763,20 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="B405" s="22" t="s">
         <v>766</v>
-      </c>
-      <c r="B405" s="22" t="s">
-        <v>767</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>17</v>
@@ -49804,14 +49794,14 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="B406" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>17</v>
@@ -49833,12 +49823,12 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>17</v>
@@ -49860,20 +49850,20 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>775</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>17</v>
@@ -49891,10 +49881,10 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -49918,20 +49908,20 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B410" s="22" t="s">
         <v>779</v>
-      </c>
-      <c r="B410" s="22" t="s">
-        <v>780</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>17</v>
@@ -49949,20 +49939,20 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B411" s="22" t="s">
         <v>782</v>
-      </c>
-      <c r="B411" s="22" t="s">
-        <v>783</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>17</v>
@@ -49980,20 +49970,20 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B412" s="22" t="s">
         <v>785</v>
-      </c>
-      <c r="B412" s="22" t="s">
-        <v>786</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>17</v>
@@ -50011,12 +50001,12 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E413" s="3" t="s">
         <v>17</v>
@@ -50038,20 +50028,20 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B414" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>791</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>17</v>
@@ -50069,10 +50059,10 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B415" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -50096,20 +50086,20 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="B416" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>796</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>17</v>
@@ -50127,10 +50117,10 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B417" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -50154,20 +50144,20 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B418" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>17</v>
@@ -50185,14 +50175,14 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>17</v>
@@ -50214,14 +50204,14 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="B420" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>807</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>17</v>
@@ -50243,14 +50233,14 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>810</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>17</v>
@@ -50272,10 +50262,10 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B422" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>813</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -50299,10 +50289,10 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>815</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -50326,10 +50316,10 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B424" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -50353,10 +50343,10 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B425" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>819</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -50380,20 +50370,20 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="B426" s="3" t="s">
         <v>820</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>821</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>17</v>
@@ -50411,10 +50401,10 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B427" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>824</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -50439,7 +50429,7 @@
     <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
       <c r="B428" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -50464,7 +50454,7 @@
     <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="8"/>
       <c r="B429" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -50489,7 +50479,7 @@
     <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
       <c r="B430" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -50514,7 +50504,7 @@
     <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
       <c r="B431" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -50538,14 +50528,14 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B432" s="33" t="s">
         <v>829</v>
-      </c>
-      <c r="B432" s="33" t="s">
-        <v>830</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>17</v>
@@ -50567,14 +50557,14 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B433" s="33" t="s">
         <v>832</v>
-      </c>
-      <c r="B433" s="33" t="s">
-        <v>833</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>17</v>
@@ -50596,14 +50586,14 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B434" s="33" t="s">
         <v>835</v>
-      </c>
-      <c r="B434" s="33" t="s">
-        <v>836</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>17</v>
@@ -50625,14 +50615,14 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B435" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>17</v>
@@ -50654,14 +50644,14 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="B436" s="33" t="s">
         <v>840</v>
-      </c>
-      <c r="B436" s="33" t="s">
-        <v>841</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>17</v>
@@ -50686,7 +50676,7 @@
       <c r="B437" s="33"/>
       <c r="C437" s="3"/>
       <c r="D437" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>17</v>
@@ -50711,7 +50701,7 @@
       <c r="B438" s="33"/>
       <c r="C438" s="3"/>
       <c r="D438" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>17</v>
@@ -50733,14 +50723,14 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B439" s="33" t="s">
         <v>845</v>
-      </c>
-      <c r="B439" s="33" t="s">
-        <v>846</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>17</v>
@@ -50763,11 +50753,11 @@
     <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="8"/>
       <c r="B440" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>17</v>
@@ -50790,11 +50780,11 @@
     <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="8"/>
       <c r="B441" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="34" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>17</v>
@@ -50816,14 +50806,14 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="B442" s="33" t="s">
         <v>849</v>
-      </c>
-      <c r="B442" s="33" t="s">
-        <v>850</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>17</v>
@@ -50845,14 +50835,14 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>853</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>17</v>
@@ -50868,7 +50858,7 @@
         <v>17</v>
       </c>
       <c r="J443" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
@@ -50877,7 +50867,7 @@
     <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
       <c r="B444" s="33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -50895,7 +50885,7 @@
         <v>17</v>
       </c>
       <c r="J444" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
@@ -50903,14 +50893,14 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B445" s="33" t="s">
         <v>857</v>
-      </c>
-      <c r="B445" s="33" t="s">
-        <v>858</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>17</v>
@@ -50926,7 +50916,7 @@
         <v>17</v>
       </c>
       <c r="J445" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
@@ -50934,14 +50924,14 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="B446" s="33" t="s">
         <v>861</v>
-      </c>
-      <c r="B446" s="33" t="s">
-        <v>862</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="32" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E446" s="3" t="s">
         <v>17</v>
@@ -50957,7 +50947,7 @@
         <v>17</v>
       </c>
       <c r="J446" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
@@ -50966,7 +50956,7 @@
     <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" s="8"/>
       <c r="B447" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="32"/>
@@ -50984,7 +50974,7 @@
         <v>17</v>
       </c>
       <c r="J447" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
@@ -50992,14 +50982,14 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="B448" s="33" t="s">
         <v>867</v>
-      </c>
-      <c r="B448" s="33" t="s">
-        <v>868</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="32" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>17</v>
@@ -51015,7 +51005,7 @@
         <v>17</v>
       </c>
       <c r="J448" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
@@ -51023,14 +51013,14 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="B449" s="33" t="s">
         <v>871</v>
-      </c>
-      <c r="B449" s="33" t="s">
-        <v>872</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>17</v>
@@ -51046,7 +51036,7 @@
         <v>17</v>
       </c>
       <c r="J449" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
@@ -51054,14 +51044,14 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="B450" s="33" t="s">
         <v>875</v>
-      </c>
-      <c r="B450" s="33" t="s">
-        <v>876</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>17</v>
@@ -51077,7 +51067,7 @@
         <v>17</v>
       </c>
       <c r="J450" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
@@ -51085,14 +51075,14 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="B451" s="33" t="s">
         <v>879</v>
-      </c>
-      <c r="B451" s="33" t="s">
-        <v>880</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="32" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>17</v>
@@ -51108,7 +51098,7 @@
         <v>17</v>
       </c>
       <c r="J451" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
@@ -51117,7 +51107,7 @@
     <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" s="8"/>
       <c r="B452" s="33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -51141,14 +51131,14 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="B453" s="33" t="s">
         <v>884</v>
-      </c>
-      <c r="B453" s="33" t="s">
-        <v>885</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>17</v>
@@ -51170,7 +51160,7 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B454" s="33"/>
       <c r="C454" s="3"/>
@@ -55900,1362 +55890,1362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -57278,24 +57268,24 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C2" t="s">
         <v>1155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1156</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -57313,10 +57303,10 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="44"/>
       <c r="J6" s="12"/>
@@ -57329,10 +57319,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>1158</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>1159</v>
       </c>
       <c r="D8" s="41"/>
       <c r="J8" s="3"/>
@@ -57345,7 +57335,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
@@ -57353,7 +57343,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -57371,298 +57361,298 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
       <c r="E14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>1162</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>1163</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="54" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="41"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="54" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="44"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="45" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="45" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
     </row>
     <row r="29" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="54" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="45" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="45" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
     </row>
     <row r="39" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="45" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="42" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="54" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="41"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="42" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="44"/>
     </row>
     <row r="46" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="44"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="45" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="41"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="42" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="54" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="45" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="41"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="45" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="41"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="44"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="46" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="48"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="50" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">

--- a/filters-testing.xlsx
+++ b/filters-testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{E9FD23FB-91CC-456A-8FC2-31D5DC47E870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0FA3D14-E262-4BD8-BF0E-416A2C6776EE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="114_{E9FD23FB-91CC-456A-8FC2-31D5DC47E870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F28DA1D0-08FF-4ADB-A4CF-A93B1829BBE0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5104,9 +5104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B207" sqref="B207"/>
+      <selection pane="topRight" activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44105,7 +44105,7 @@
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>17</v>
@@ -44132,7 +44132,7 @@
         <v>46</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
@@ -44159,7 +44159,7 @@
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
@@ -44660,7 +44660,7 @@
         <v>419</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
@@ -44691,9 +44691,11 @@
         <v>421</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F227" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="F227" s="3">
+        <v>300</v>
+      </c>
       <c r="G227" s="3" t="s">
         <v>17</v>
       </c>
@@ -44716,7 +44718,7 @@
         <v>422</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
@@ -44741,7 +44743,7 @@
         <v>423</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
@@ -44766,7 +44768,7 @@
         <v>425</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3" t="s">
@@ -44791,7 +44793,7 @@
         <v>1221</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
@@ -44816,7 +44818,7 @@
         <v>426</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
@@ -44841,7 +44843,7 @@
         <v>1222</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
@@ -44866,7 +44868,7 @@
         <v>427</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
@@ -44891,7 +44893,7 @@
         <v>428</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
@@ -44924,7 +44926,9 @@
       <c r="E236" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F236" s="3"/>
+      <c r="F236" s="3">
+        <v>728</v>
+      </c>
       <c r="G236" s="3" t="s">
         <v>17</v>
       </c>
